--- a/biology/Zoologie/Adelpha_alala/Adelpha_alala.xlsx
+++ b/biology/Zoologie/Adelpha_alala/Adelpha_alala.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Adelpha alala  est une espèce de papillons de la famille des Nymphalidae, sous-famille des Limenitidinae et du genre Adelpha.
 </t>
@@ -511,16 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha alala a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa alala[1].
-Sous-espèces
-Adelpha alala alala ; présent au Venezuela
-Adelpha alala completa Fruhstorfer, 1907 ; présent au Venezuela et en Colombie.
-Adelpha alala negra (C. &amp; R. Felder, 1862) ; présent, en Équateur, en Colombie, en Bolivie, au Pérou et en Argentine.
-Adelpha alala titia Fruhstorfer, 1915 ; présent au Venezuela et en Colombie[1].
-Noms vernaculaires
-Adelpha alala se nomme en anglais Alala Sister[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha alala a été décrit par William Chapman Hewitson en 1867 sous le nom Heterochroa alala.
 </t>
         </is>
       </c>
@@ -546,14 +553,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Adelpha  alala est un papillon d'une envergure de 42 mm à 50 mm, à bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une bande blanche dans l'aire discale des ailes antérieures et postérieures formant un grand V avec aux ailes antérieures une ligne submarginale de taches de couleur jaune orangé[3].
-Le revers est jaune orangé taché de beige nacré avec la même large bande blanche que sur le dessus.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Adelpha alala alala ; présent au Venezuela
+Adelpha alala completa Fruhstorfer, 1907 ; présent au Venezuela et en Colombie.
+Adelpha alala negra (C. &amp; R. Felder, 1862) ; présent, en Équateur, en Colombie, en Bolivie, au Pérou et en Argentine.
+Adelpha alala titia Fruhstorfer, 1915 ; présent au Venezuela et en Colombie.</t>
         </is>
       </c>
     </row>
@@ -578,12 +592,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Plantes hôtes</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha alala se nomme en anglais Alala Sister.
+</t>
         </is>
       </c>
     </row>
@@ -608,16 +629,122 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha  alala est un papillon d'une envergure de 42 mm à 50 mm, à bord externe des ailes antérieures légèrement concave au dessus marron marqué d'une bande blanche dans l'aire discale des ailes antérieures et postérieures formant un grand V avec aux ailes antérieures une ligne submarginale de taches de couleur jaune orangé.
+Le revers est jaune orangé taché de beige nacré avec la même large bande blanche que sur le dessus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Adelpha_alala</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_alala</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adelpha alala est présent au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou  et en Argentine[1]. 
-Biotope
-Adelpha alala réside dans la forêt humide sur le versant est des Andes à une altitude de 500 m à 2 600 m[2].
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha alala est présent au Venezuela, en Équateur, en Colombie, en Bolivie, au Pérou  et en Argentine. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Adelpha_alala</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_alala</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adelpha alala réside dans la forêt humide sur le versant est des Andes à une altitude de 500 m à 2 600 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Adelpha_alala</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Adelpha_alala</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
